--- a/Excel/DaftarBarang/BarangSortirDataExcel.xlsx
+++ b/Excel/DaftarBarang/BarangSortirDataExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>namabarang</t>
   </si>
@@ -68,13 +68,31 @@
     <t>Kilogram</t>
   </si>
   <si>
-    <t>Gula Busuk (edit)</t>
+    <t>Edited Rotten Sugar</t>
   </si>
   <si>
     <t>GB02</t>
   </si>
   <si>
     <t>Kodi</t>
+  </si>
+  <si>
+    <t>Daun Teh Busuk</t>
+  </si>
+  <si>
+    <t>Qw2E0#</t>
+  </si>
+  <si>
+    <t>Kakao Busuk</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Singkong Busuk</t>
+  </si>
+  <si>
+    <t>SK01</t>
   </si>
 </sst>
 </file>
@@ -690,8 +708,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1230,15 +1251,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="15.6363636363636" customWidth="1"/>
     <col min="4" max="5" width="11.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="17.0909090909091" customWidth="1"/>
     <col min="7" max="7" width="16.3636363636364" customWidth="1"/>
@@ -1316,6 +1337,75 @@
         <v>45</v>
       </c>
     </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
